--- a/xlsx/lipdb170404.xlsx
+++ b/xlsx/lipdb170404.xlsx
@@ -1950,18 +1950,12 @@
     <t>럭스립칼라 럭스립 립칼라 유어마제스티</t>
   </si>
   <si>
-    <t>L589 제품사진x</t>
-  </si>
-  <si>
     <t>럭스립칼라 럭스립 립칼라 임페리얼레드</t>
   </si>
   <si>
     <t>럭스립칼라 럭스립 립칼라 선셋오렌지</t>
   </si>
   <si>
-    <t>L591 제품사진x</t>
-  </si>
-  <si>
     <t>럭스립칼라 럭스립 립칼라 프레임</t>
   </si>
   <si>
@@ -2196,9 +2190,6 @@
     <t>럭스립칼라 럭스립 립칼라 핑크클라우드</t>
   </si>
   <si>
-    <t>L811 제품사진x</t>
-  </si>
-  <si>
     <t>럭스립칼라 럭스립 립칼라 레드베리</t>
   </si>
   <si>
@@ -2464,13 +2455,25 @@
   </si>
   <si>
     <t>디어마이 디어마이블루밍 립스톡 블루밍립스톡 상쾌한 오렌지</t>
+  </si>
+  <si>
+    <t>L589</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>L591</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>L811</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2570,6 +2573,11 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2612,7 +2620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2690,6 +2698,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3007,8 +3016,8 @@
   <dimension ref="A1:AE994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E212" sqref="E212"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9041,8 +9050,8 @@
       <c r="A90" s="10">
         <v>89</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>643</v>
+      <c r="B90" s="57" t="s">
+        <v>812</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>147</v>
@@ -9089,7 +9098,7 @@
         <v>46</v>
       </c>
       <c r="S90" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T90" s="14"/>
       <c r="U90" s="14"/>
@@ -9156,7 +9165,7 @@
         <v>46</v>
       </c>
       <c r="S91" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T91" s="14"/>
       <c r="U91" s="14"/>
@@ -9175,8 +9184,8 @@
       <c r="A92" s="10">
         <v>91</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>646</v>
+      <c r="B92" s="57" t="s">
+        <v>813</v>
       </c>
       <c r="C92" s="30" t="s">
         <v>149</v>
@@ -9223,7 +9232,7 @@
         <v>46</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T92" s="14"/>
       <c r="U92" s="14"/>
@@ -9290,7 +9299,7 @@
         <v>46</v>
       </c>
       <c r="S93" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="T93" s="14"/>
       <c r="U93" s="14"/>
@@ -9357,7 +9366,7 @@
         <v>46</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T94" s="14"/>
       <c r="U94" s="14"/>
@@ -9424,7 +9433,7 @@
         <v>46</v>
       </c>
       <c r="S95" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T95" s="14"/>
       <c r="U95" s="14"/>
@@ -9493,7 +9502,7 @@
         <v>46</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T96" s="14"/>
       <c r="U96" s="14"/>
@@ -9560,7 +9569,7 @@
         <v>46</v>
       </c>
       <c r="S97" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T97" s="14"/>
       <c r="U97" s="14"/>
@@ -9629,7 +9638,7 @@
         <v>46</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="T98" s="14"/>
       <c r="U98" s="14"/>
@@ -9696,7 +9705,7 @@
         <v>46</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T99" s="14"/>
       <c r="U99" s="14"/>
@@ -9765,7 +9774,7 @@
         <v>46</v>
       </c>
       <c r="S100" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T100" s="14"/>
       <c r="U100" s="14"/>
@@ -9834,7 +9843,7 @@
         <v>46</v>
       </c>
       <c r="S101" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="T101" s="14"/>
       <c r="U101" s="14"/>
@@ -9903,7 +9912,7 @@
         <v>46</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="T102" s="14"/>
       <c r="U102" s="14"/>
@@ -9972,7 +9981,7 @@
         <v>46</v>
       </c>
       <c r="S103" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="T103" s="14"/>
       <c r="U103" s="14"/>
@@ -10041,7 +10050,7 @@
         <v>46</v>
       </c>
       <c r="S104" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="T104" s="14"/>
       <c r="U104" s="14"/>
@@ -10112,7 +10121,7 @@
         <v>46</v>
       </c>
       <c r="S105" s="10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="T105" s="14"/>
       <c r="U105" s="14"/>
@@ -10179,7 +10188,7 @@
         <v>46</v>
       </c>
       <c r="S106" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="T106" s="14"/>
       <c r="U106" s="14"/>
@@ -10199,7 +10208,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>186</v>
@@ -10248,7 +10257,7 @@
         <v>46</v>
       </c>
       <c r="S107" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="T107" s="14"/>
       <c r="U107" s="14"/>
@@ -10315,7 +10324,7 @@
         <v>46</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T108" s="14"/>
       <c r="U108" s="14"/>
@@ -10382,7 +10391,7 @@
         <v>46</v>
       </c>
       <c r="S109" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T109" s="14"/>
       <c r="U109" s="14"/>
@@ -10449,7 +10458,7 @@
         <v>46</v>
       </c>
       <c r="S110" s="10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="T110" s="14"/>
       <c r="U110" s="14"/>
@@ -10516,7 +10525,7 @@
         <v>46</v>
       </c>
       <c r="S111" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="T111" s="14"/>
       <c r="U111" s="14"/>
@@ -10587,7 +10596,7 @@
         <v>46</v>
       </c>
       <c r="S112" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T112" s="14"/>
       <c r="U112" s="14"/>
@@ -10658,7 +10667,7 @@
         <v>46</v>
       </c>
       <c r="S113" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T113" s="14"/>
       <c r="U113" s="14"/>
@@ -10725,7 +10734,7 @@
         <v>46</v>
       </c>
       <c r="S114" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="T114" s="14"/>
       <c r="U114" s="14"/>
@@ -10794,7 +10803,7 @@
         <v>46</v>
       </c>
       <c r="S115" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="T115" s="14"/>
       <c r="U115" s="14"/>
@@ -10861,7 +10870,7 @@
         <v>46</v>
       </c>
       <c r="S116" s="10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="T116" s="14"/>
       <c r="U116" s="14"/>
@@ -10928,7 +10937,7 @@
         <v>46</v>
       </c>
       <c r="S117" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="T117" s="14"/>
       <c r="U117" s="14"/>
@@ -10995,7 +11004,7 @@
         <v>46</v>
       </c>
       <c r="S118" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="T118" s="14"/>
       <c r="U118" s="14"/>
@@ -11332,7 +11341,7 @@
         <v>46</v>
       </c>
       <c r="S123" s="31" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="T123" s="14"/>
       <c r="U123" s="14"/>
@@ -11399,7 +11408,7 @@
         <v>46</v>
       </c>
       <c r="S124" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="T124" s="14"/>
       <c r="U124" s="14"/>
@@ -11466,7 +11475,7 @@
         <v>63</v>
       </c>
       <c r="S125" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T125" s="14"/>
       <c r="U125" s="14"/>
@@ -11533,7 +11542,7 @@
         <v>63</v>
       </c>
       <c r="S126" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="T126" s="14"/>
       <c r="U126" s="14"/>
@@ -11600,7 +11609,7 @@
         <v>63</v>
       </c>
       <c r="S127" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="T127" s="14"/>
       <c r="U127" s="14"/>
@@ -11667,7 +11676,7 @@
         <v>63</v>
       </c>
       <c r="S128" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T128" s="14"/>
       <c r="U128" s="14"/>
@@ -11734,7 +11743,7 @@
         <v>46</v>
       </c>
       <c r="S129" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T129" s="14"/>
       <c r="U129" s="14"/>
@@ -11801,7 +11810,7 @@
         <v>46</v>
       </c>
       <c r="S130" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="T130" s="14"/>
       <c r="U130" s="14"/>
@@ -11870,7 +11879,7 @@
         <v>46</v>
       </c>
       <c r="S131" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="T131" s="14"/>
       <c r="U131" s="14"/>
@@ -11937,7 +11946,7 @@
         <v>46</v>
       </c>
       <c r="S132" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="T132" s="14"/>
       <c r="U132" s="14"/>
@@ -12004,7 +12013,7 @@
         <v>46</v>
       </c>
       <c r="S133" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="T133" s="14"/>
       <c r="U133" s="14"/>
@@ -12071,7 +12080,7 @@
         <v>46</v>
       </c>
       <c r="S134" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T134" s="14"/>
       <c r="U134" s="14"/>
@@ -12142,7 +12151,7 @@
         <v>46</v>
       </c>
       <c r="S135" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T135" s="14"/>
       <c r="U135" s="14"/>
@@ -12209,7 +12218,7 @@
         <v>46</v>
       </c>
       <c r="S136" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T136" s="14"/>
       <c r="U136" s="14"/>
@@ -12276,7 +12285,7 @@
         <v>46</v>
       </c>
       <c r="S137" s="31" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T137" s="14"/>
       <c r="U137" s="14"/>
@@ -12343,7 +12352,7 @@
         <v>46</v>
       </c>
       <c r="S138" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T138" s="14"/>
       <c r="U138" s="14"/>
@@ -12479,7 +12488,7 @@
         <v>46</v>
       </c>
       <c r="S140" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T140" s="14"/>
       <c r="U140" s="14"/>
@@ -12546,7 +12555,7 @@
         <v>46</v>
       </c>
       <c r="S141" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T141" s="14"/>
       <c r="U141" s="14"/>
@@ -12613,7 +12622,7 @@
         <v>63</v>
       </c>
       <c r="S142" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T142" s="14"/>
       <c r="U142" s="14"/>
@@ -12680,7 +12689,7 @@
         <v>46</v>
       </c>
       <c r="S143" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="T143" s="14"/>
       <c r="U143" s="14"/>
@@ -12747,7 +12756,7 @@
         <v>46</v>
       </c>
       <c r="S144" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="T144" s="14"/>
       <c r="U144" s="14"/>
@@ -12814,7 +12823,7 @@
         <v>46</v>
       </c>
       <c r="S145" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="T145" s="14"/>
       <c r="U145" s="14"/>
@@ -12881,7 +12890,7 @@
         <v>46</v>
       </c>
       <c r="S146" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="T146" s="14"/>
       <c r="U146" s="14"/>
@@ -12948,7 +12957,7 @@
         <v>46</v>
       </c>
       <c r="S147" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="T147" s="14"/>
       <c r="U147" s="14"/>
@@ -13015,7 +13024,7 @@
         <v>46</v>
       </c>
       <c r="S148" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="T148" s="14"/>
       <c r="U148" s="14"/>
@@ -13082,7 +13091,7 @@
         <v>46</v>
       </c>
       <c r="S149" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T149" s="14"/>
       <c r="U149" s="14"/>
@@ -13149,7 +13158,7 @@
         <v>46</v>
       </c>
       <c r="S150" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="T150" s="14"/>
       <c r="U150" s="14"/>
@@ -13216,7 +13225,7 @@
         <v>46</v>
       </c>
       <c r="S151" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T151" s="14"/>
       <c r="U151" s="14"/>
@@ -13283,7 +13292,7 @@
         <v>46</v>
       </c>
       <c r="S152" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="T152" s="14"/>
       <c r="U152" s="14"/>
@@ -13350,7 +13359,7 @@
         <v>46</v>
       </c>
       <c r="S153" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="T153" s="14"/>
       <c r="U153" s="14"/>
@@ -13417,7 +13426,7 @@
         <v>46</v>
       </c>
       <c r="S154" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T154" s="14"/>
       <c r="U154" s="14"/>
@@ -13484,7 +13493,7 @@
         <v>46</v>
       </c>
       <c r="S155" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="T155" s="14"/>
       <c r="U155" s="14"/>
@@ -13551,7 +13560,7 @@
         <v>63</v>
       </c>
       <c r="S156" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="T156" s="14"/>
       <c r="U156" s="14"/>
@@ -13618,7 +13627,7 @@
         <v>63</v>
       </c>
       <c r="S157" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="T157" s="14"/>
       <c r="U157" s="14"/>
@@ -13685,7 +13694,7 @@
         <v>63</v>
       </c>
       <c r="S158" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="T158" s="14"/>
       <c r="U158" s="14"/>
@@ -13752,7 +13761,7 @@
         <v>63</v>
       </c>
       <c r="S159" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="T159" s="14"/>
       <c r="U159" s="14"/>
@@ -13819,7 +13828,7 @@
         <v>46</v>
       </c>
       <c r="S160" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="T160" s="14"/>
       <c r="U160" s="14"/>
@@ -13886,7 +13895,7 @@
         <v>46</v>
       </c>
       <c r="S161" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="T161" s="14"/>
       <c r="U161" s="14"/>
@@ -13953,7 +13962,7 @@
         <v>46</v>
       </c>
       <c r="S162" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T162" s="14"/>
       <c r="U162" s="14"/>
@@ -14020,7 +14029,7 @@
         <v>46</v>
       </c>
       <c r="S163" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T163" s="14"/>
       <c r="U163" s="14"/>
@@ -14087,7 +14096,7 @@
         <v>46</v>
       </c>
       <c r="S164" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="T164" s="14"/>
       <c r="U164" s="14"/>
@@ -14154,7 +14163,7 @@
         <v>46</v>
       </c>
       <c r="S165" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="T165" s="14"/>
       <c r="U165" s="14"/>
@@ -14221,7 +14230,7 @@
         <v>46</v>
       </c>
       <c r="S166" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="T166" s="14"/>
       <c r="U166" s="14"/>
@@ -14288,7 +14297,7 @@
         <v>46</v>
       </c>
       <c r="S167" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T167" s="14"/>
       <c r="U167" s="14"/>
@@ -14355,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="S168" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="T168" s="14"/>
       <c r="U168" s="14"/>
@@ -14422,7 +14431,7 @@
         <v>46</v>
       </c>
       <c r="S169" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T169" s="14"/>
       <c r="U169" s="14"/>
@@ -14489,7 +14498,7 @@
         <v>46</v>
       </c>
       <c r="S170" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T170" s="14"/>
       <c r="U170" s="14"/>
@@ -14556,7 +14565,7 @@
         <v>46</v>
       </c>
       <c r="S171" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="T171" s="14"/>
       <c r="U171" s="14"/>
@@ -14623,7 +14632,7 @@
         <v>46</v>
       </c>
       <c r="S172" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="T172" s="14"/>
       <c r="U172" s="14"/>
@@ -14694,7 +14703,7 @@
         <v>46</v>
       </c>
       <c r="S173" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="T173" s="14"/>
       <c r="U173" s="14"/>
@@ -14713,8 +14722,8 @@
       <c r="A174" s="10">
         <v>173</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>725</v>
+      <c r="B174" s="57" t="s">
+        <v>814</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>524</v>
@@ -14763,7 +14772,7 @@
         <v>46</v>
       </c>
       <c r="S174" s="10" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="T174" s="14"/>
       <c r="U174" s="14"/>
@@ -14830,7 +14839,7 @@
         <v>46</v>
       </c>
       <c r="S175" s="10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="T175" s="14"/>
       <c r="U175" s="14"/>
@@ -14897,7 +14906,7 @@
         <v>46</v>
       </c>
       <c r="S176" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="T176" s="14"/>
       <c r="U176" s="14"/>
@@ -14964,7 +14973,7 @@
         <v>46</v>
       </c>
       <c r="S177" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="T177" s="14"/>
       <c r="U177" s="14"/>
@@ -15031,7 +15040,7 @@
         <v>46</v>
       </c>
       <c r="S178" s="10" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="T178" s="14"/>
       <c r="U178" s="14"/>
@@ -15098,7 +15107,7 @@
         <v>46</v>
       </c>
       <c r="S179" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="T179" s="14"/>
       <c r="U179" s="14"/>
@@ -15165,7 +15174,7 @@
         <v>63</v>
       </c>
       <c r="S180" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="T180" s="14"/>
       <c r="U180" s="14"/>
@@ -15234,7 +15243,7 @@
         <v>63</v>
       </c>
       <c r="S181" s="10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="T181" s="14"/>
       <c r="U181" s="14"/>
@@ -15301,7 +15310,7 @@
         <v>63</v>
       </c>
       <c r="S182" s="10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="T182" s="14"/>
       <c r="U182" s="14"/>
@@ -15368,7 +15377,7 @@
         <v>63</v>
       </c>
       <c r="S183" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="T183" s="14"/>
       <c r="U183" s="14"/>
@@ -15435,7 +15444,7 @@
         <v>63</v>
       </c>
       <c r="S184" s="11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="T184" s="14"/>
       <c r="U184" s="14"/>
@@ -15502,7 +15511,7 @@
         <v>63</v>
       </c>
       <c r="S185" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="T185" s="14"/>
       <c r="U185" s="14"/>
@@ -15569,7 +15578,7 @@
         <v>63</v>
       </c>
       <c r="S186" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="T186" s="14"/>
       <c r="U186" s="14"/>
@@ -15624,7 +15633,7 @@
         <v>55000</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="P187" s="10" t="s">
         <v>547</v>
@@ -15636,7 +15645,7 @@
         <v>63</v>
       </c>
       <c r="S187" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="T187" s="14"/>
       <c r="U187" s="14"/>
@@ -15703,7 +15712,7 @@
         <v>46</v>
       </c>
       <c r="S188" s="10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="T188" s="14"/>
       <c r="U188" s="14"/>
@@ -15723,7 +15732,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>377</v>
@@ -15774,7 +15783,7 @@
         <v>63</v>
       </c>
       <c r="S189" s="11" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="T189" s="45"/>
       <c r="U189" s="45"/>
@@ -15794,7 +15803,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>378</v>
@@ -15841,7 +15850,7 @@
         <v>63</v>
       </c>
       <c r="S190" s="11" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="T190" s="45"/>
       <c r="U190" s="45"/>
@@ -15861,7 +15870,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C191" s="12" t="s">
         <v>379</v>
@@ -15908,7 +15917,7 @@
         <v>63</v>
       </c>
       <c r="S191" s="11" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="T191" s="45"/>
       <c r="U191" s="45"/>
@@ -15928,7 +15937,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>380</v>
@@ -15975,7 +15984,7 @@
         <v>63</v>
       </c>
       <c r="S192" s="11" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="T192" s="45"/>
       <c r="U192" s="45"/>
@@ -15995,7 +16004,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>381</v>
@@ -16042,7 +16051,7 @@
         <v>63</v>
       </c>
       <c r="S193" s="11" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="T193" s="45"/>
       <c r="U193" s="45"/>
@@ -16062,7 +16071,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>382</v>
@@ -16109,7 +16118,7 @@
         <v>63</v>
       </c>
       <c r="S194" s="11" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="T194" s="45"/>
       <c r="U194" s="45"/>
@@ -16129,7 +16138,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>383</v>
@@ -16176,7 +16185,7 @@
         <v>63</v>
       </c>
       <c r="S195" s="11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="T195" s="45"/>
       <c r="U195" s="45"/>
@@ -16196,7 +16205,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>384</v>
@@ -16243,7 +16252,7 @@
         <v>63</v>
       </c>
       <c r="S196" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="T196" s="45"/>
       <c r="U196" s="45"/>
@@ -16263,7 +16272,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>403</v>
@@ -16310,7 +16319,7 @@
         <v>63</v>
       </c>
       <c r="S197" s="11" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="T197" s="45"/>
       <c r="U197" s="45"/>
@@ -16330,7 +16339,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>399</v>
@@ -16377,7 +16386,7 @@
         <v>63</v>
       </c>
       <c r="S198" s="11" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="T198" s="45"/>
       <c r="U198" s="45"/>
@@ -16397,7 +16406,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>406</v>
@@ -16444,7 +16453,7 @@
         <v>63</v>
       </c>
       <c r="S199" s="11" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="T199" s="45"/>
       <c r="U199" s="45"/>
@@ -16464,7 +16473,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>410</v>
@@ -16511,7 +16520,7 @@
         <v>63</v>
       </c>
       <c r="S200" s="11" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="T200" s="45"/>
       <c r="U200" s="45"/>
@@ -16531,10 +16540,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>413</v>
@@ -16568,7 +16577,7 @@
         <v>5800</v>
       </c>
       <c r="O201" s="11" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="P201" s="11" t="s">
         <v>44</v>
@@ -16580,7 +16589,7 @@
         <v>63</v>
       </c>
       <c r="S201" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="T201" s="45"/>
       <c r="U201" s="45"/>
@@ -16600,10 +16609,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>415</v>
@@ -16647,7 +16656,7 @@
         <v>63</v>
       </c>
       <c r="S202" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="T202" s="45"/>
       <c r="U202" s="45"/>
@@ -16738,7 +16747,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>425</v>
@@ -16773,7 +16782,7 @@
         <v>5000</v>
       </c>
       <c r="O204" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P204" s="30" t="s">
         <v>97</v>
@@ -16785,7 +16794,7 @@
         <v>63</v>
       </c>
       <c r="S204" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T204" s="45"/>
       <c r="U204" s="45"/>
@@ -16805,7 +16814,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>427</v>
@@ -16840,7 +16849,7 @@
         <v>5000</v>
       </c>
       <c r="O205" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P205" s="30" t="s">
         <v>97</v>
@@ -16852,7 +16861,7 @@
         <v>63</v>
       </c>
       <c r="S205" s="11" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="T205" s="45"/>
       <c r="U205" s="45"/>
@@ -16872,7 +16881,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>429</v>
@@ -16907,7 +16916,7 @@
         <v>5000</v>
       </c>
       <c r="O206" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P206" s="30" t="s">
         <v>97</v>
@@ -16919,7 +16928,7 @@
         <v>63</v>
       </c>
       <c r="S206" s="11" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="T206" s="45"/>
       <c r="U206" s="45"/>
@@ -16939,7 +16948,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>431</v>
@@ -16974,7 +16983,7 @@
         <v>5000</v>
       </c>
       <c r="O207" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P207" s="30" t="s">
         <v>97</v>
@@ -16986,7 +16995,7 @@
         <v>63</v>
       </c>
       <c r="S207" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="T207" s="45"/>
       <c r="U207" s="45"/>
@@ -17006,7 +17015,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>433</v>
@@ -17041,7 +17050,7 @@
         <v>5000</v>
       </c>
       <c r="O208" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P208" s="30" t="s">
         <v>97</v>
@@ -17053,7 +17062,7 @@
         <v>63</v>
       </c>
       <c r="S208" s="11" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="T208" s="45"/>
       <c r="U208" s="45"/>
@@ -17073,7 +17082,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>435</v>
@@ -17112,7 +17121,7 @@
         <v>5000</v>
       </c>
       <c r="O209" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P209" s="30" t="s">
         <v>97</v>
@@ -17124,7 +17133,7 @@
         <v>63</v>
       </c>
       <c r="S209" s="11" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="T209" s="45"/>
       <c r="U209" s="45"/>
@@ -17144,10 +17153,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>36</v>
@@ -17179,7 +17188,7 @@
         <v>5000</v>
       </c>
       <c r="O210" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P210" s="30" t="s">
         <v>97</v>
@@ -17191,7 +17200,7 @@
         <v>63</v>
       </c>
       <c r="S210" s="11" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="T210" s="45"/>
       <c r="U210" s="45"/>
@@ -17211,7 +17220,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C211" s="12" t="s">
         <v>438</v>
@@ -17246,7 +17255,7 @@
         <v>5000</v>
       </c>
       <c r="O211" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P211" s="30" t="s">
         <v>97</v>
@@ -17258,7 +17267,7 @@
         <v>63</v>
       </c>
       <c r="S211" s="11" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="T211" s="45"/>
       <c r="U211" s="45"/>
@@ -17278,10 +17287,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C212" s="30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>229</v>
@@ -17325,7 +17334,7 @@
         <v>63</v>
       </c>
       <c r="S212" s="11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="T212" s="45"/>
       <c r="U212" s="45"/>
@@ -17345,10 +17354,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>252</v>
@@ -17392,7 +17401,7 @@
         <v>46</v>
       </c>
       <c r="S213" s="31" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="T213" s="45"/>
       <c r="U213" s="45"/>
@@ -17412,7 +17421,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C214" s="51" t="s">
         <v>501</v>
@@ -17447,7 +17456,7 @@
         <v>9000</v>
       </c>
       <c r="O214" s="11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P214" s="21" t="s">
         <v>44</v>
@@ -17459,7 +17468,7 @@
         <v>63</v>
       </c>
       <c r="S214" s="11" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="T214" s="45"/>
       <c r="U214" s="45"/>
@@ -17479,7 +17488,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C215" s="51" t="s">
         <v>504</v>
@@ -17514,7 +17523,7 @@
         <v>9000</v>
       </c>
       <c r="O215" s="11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P215" s="21" t="s">
         <v>44</v>
@@ -17526,7 +17535,7 @@
         <v>63</v>
       </c>
       <c r="S215" s="11" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="T215" s="45"/>
       <c r="U215" s="45"/>
@@ -17546,7 +17555,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C216" s="52" t="s">
         <v>508</v>
@@ -17581,7 +17590,7 @@
         <v>9000</v>
       </c>
       <c r="O216" s="11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P216" s="21" t="s">
         <v>44</v>
@@ -17593,7 +17602,7 @@
         <v>63</v>
       </c>
       <c r="S216" s="11" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="T216" s="45"/>
       <c r="U216" s="45"/>
@@ -17613,7 +17622,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>119</v>
@@ -17648,7 +17657,7 @@
         <v>37000</v>
       </c>
       <c r="O217" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P217" s="11" t="s">
         <v>259</v>
@@ -17660,7 +17669,7 @@
         <v>63</v>
       </c>
       <c r="S217" s="11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="T217" s="45"/>
       <c r="U217" s="45"/>
@@ -17680,7 +17689,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C218" s="53" t="s">
         <v>122</v>
@@ -17715,7 +17724,7 @@
         <v>37000</v>
       </c>
       <c r="O218" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P218" s="24" t="s">
         <v>259</v>
@@ -17727,7 +17736,7 @@
         <v>63</v>
       </c>
       <c r="S218" s="24" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="T218" s="54"/>
       <c r="U218" s="54"/>
@@ -17747,7 +17756,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>123</v>
@@ -17782,7 +17791,7 @@
         <v>37000</v>
       </c>
       <c r="O219" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P219" s="11" t="s">
         <v>259</v>
@@ -17794,7 +17803,7 @@
         <v>63</v>
       </c>
       <c r="S219" s="11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="T219" s="45"/>
       <c r="U219" s="45"/>
@@ -17849,7 +17858,7 @@
         <v>45000</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="P220" s="10" t="s">
         <v>97</v>
@@ -17928,7 +17937,7 @@
         <v>63</v>
       </c>
       <c r="S221" s="10" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="T221" s="14"/>
       <c r="U221" s="14"/>
@@ -17995,7 +18004,7 @@
         <v>63</v>
       </c>
       <c r="S222" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="T222" s="14"/>
       <c r="U222" s="14"/>
@@ -18015,10 +18024,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>69</v>
@@ -18062,7 +18071,7 @@
         <v>46</v>
       </c>
       <c r="S223" s="10" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="T223" s="14"/>
       <c r="U223" s="14"/>
@@ -21164,5 +21173,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>